--- a/bb.xlsx
+++ b/bb.xlsx
@@ -413,7 +413,7 @@
     <row r="1">
       <c r="A1" s="0" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>test</t>
         </is>
       </c>
     </row>
